--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560350/JX560350_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560350/JX560350_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89317630175</v>
+        <v>45441.83344372001</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1187_1189instc']</t>
+          <t>['1161_1287insaggtgacccgcccctggatcacaattctagctgcccctcccctggtcaatggatgctattatgtgtgcgtgacccggatatgttgtaaatcaggccattatttctttcctggccatccggttagcg', '1238_1370del', '1202_1282del', '1161_1174insgaccggcagctta', '1160_1235instaaggtgccatgactataaaccttcctagccttgaccgggtcaagtctatgggtagcatgccagggacccttgcc']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89317633068</v>
+        <v>45441.83344375472</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['224_228insgcac']</t>
+          <t>['240_283insccaaggtagtgttacaggggtggacgaggaaatcttccactaa', '254_373insaggatggacactggcatgatggcctcaaagctgtccgcttttcggcaaccattatgtgtgatgcagggcaaacgggaggtcgggcgacagcaaatcttagccaagaatagtataccgcg', '223_316insagacgatcaatcgatcgcagagaattagagcagcaacgcaatcccgtgcaccagtcggacggccagcgactcgccgggaaagggctcttggag', '206_253del', '172_257del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89317635962</v>
+        <v>45441.83344377787</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5092a&gt;g']</t>
+          <t>['5096_5156insgcgtccttcaatggacgatttgttgcgctaggatacggcccaactctggttttgaggtgc', '5145_5263del', '5153_5200del', '5119_5169del', '5148_5190insgttgttagtatcccgtcccgctacaggctcacacactacatg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89317638276</v>
+        <v>45441.83344391985</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1322c&gt;g']</t>
+          <t>['1224_1246instcttgtagaggatcattcggct', '1295_1440del', '1296_1346insgcatctcatatcgcccagtcctccttatattttacggtggcttaagaact', '1182_1257del', '1141_1270del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['244_248insaccg']</t>
+          <t>['252_344insagcgatatattttatacatcgacgacatatttatgcaagttcgaagaggggttcgggattgtttgacacagcacggatgtcggtgaacttcg', '205_262del', '239_353insaacaggcaaaacccggtcttcaggggttaacacatgcgtgtcgcaatgcacacgcagcgattaaacgcagtttttgccccattcacgtatatcttgatgaatagcattcctaat', '172_300insttcctcaagctttcaccagcagtcttcctattcctaactcaggagacagggtgagctacgccccagttaatcataagaagcaatgatccttcgttcaactcctcaagtacagcatacgggctccgcgc', '248_360insagacggtaaactcgttatcaagacacgatgattgaatcaacttttgacttttagccgagaaatcttttttaacctttcacgtacggccactaaacatatcaatggggtaccc']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89317640592</v>
+        <v>45441.83344396035</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1318_1322inscgag']</t>
+          <t>['1230_1322insggggcaatcgacggcacaggtccacgattgggctgtcgggtatggcaaccttctcgggtcagccggaccccacaattcgaggacctcccctc', '1156_1196insaagtacatacggcgttgacaggggcacacccatgcatata', '1332_1423del', '1301_1333del', '1279_1308del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5150t&gt;c']</t>
+          <t>['5146_5274insagtctaagatttcgccgaagtcgtgtttatttaagccccaccagacgctatgtagaccataacggagagtaagcttattagtataagtataggagcataacgatctaacccccgggttcccggtgaga', '5134_5151del', '5096_5210del', '5104_5134del', '5107_5257inscggattaacgctagtgtgagcgtgtgttagggaattcgcaggttgtatacgttagcaatgcggattccttggggcaagtaataaggggctcaatgcggatatatggattatccgatgggattgctgatccttatccgaattacacattga']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89317643493</v>
+        <v>45441.83344398931</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['184t&gt;g']</t>
+          <t>['218_305insgcctcaccggttatcacgatcctgcatgtgatgtatatacattggaatgccatcgcagagctttttggagccacatggtggcagtat', '153_273insccgtcgatccgggcttccagcttgttgtttgaataccgtggtggcgtttttccagacaagcaataccatacagtcgttcaattattccctacgggagccacgaaaacgacaggctacctg', '179_267insacacaacctctcacggcttagaacaaagctgtatacacatttgcaacagggccatacaggaaaatagacatgccaggacgtagcaagg', '220_255instagctacggagtgagatggtcttacatcgacgaaa', '202_312insactagcgcacctgctagtgtaggttgtatatcctcaccttcggtctaaatcgagtgcgcgcgcacatccccagcccattaggttgctgtcatctctgctcgcccgccccg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5149_5154insgctag']</t>
+          <t>['5147_5189del', '5148_5294insgtatgactctcgcgcttgtcattccgcctagacatatttttcattagttgttagaacctgcctccccgacatgcctgtaaccacctaaaaatcacggctgggcgagtctttcgacctatagtgtgaatagtcacaattcaacacgg', '5114_5160del', '5078_5099insgcggacacagaccagctgcgt', '5092_5142del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89317645808</v>
+        <v>45441.83344401823</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1193_1194del']</t>
+          <t>['1296_1383insaaagcccctcttgaccgcgcccaaaggtatatcgtctcccacagtcgaactgcgtgctgatatgccttggaagtacgtcgtagcgag', '1304_1334insactgcaggaaacagtgcacgcatggtaaac', '1349_1382insgtatcagatcccagctcattaacgtcatctctt', '1287_1432del', '1154_1197del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['230c&gt;t']</t>
+          <t>['186_259insttgatcccagggcgttcaatgaaactacttggttatcgctgccttccaacgcactccaattatcttgatcgtg', '213_248del', '228_257insggagctggtctctcgtctaaactatagag', '228_316del', '188_198insgtacgagatt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5054_5056insgc']</t>
+          <t>['5097_5230insgtcggtggctcatgggattaccaatcgacgagacattgctctcatggcgcttaataccttatcgcactttgatcaccagggaggaggttgaatgagacttatgccaacgcctgacatgcatgttgaacctcta', '5116_5153del', '5125_5244del', '5145_5202del', '5131_5215del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89317648123</v>
+        <v>45441.83344404137</v>
       </c>
     </row>
   </sheetData>
